--- a/Chapter_4_Figures.xlsx
+++ b/Chapter_4_Figures.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">DOULAC3</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">pct</t>
@@ -130,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unweighted_n</t>
   </si>
   <si>
     <t xml:space="preserve">AIAN</t>
@@ -615,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.123587693053645</v>
+        <v>0.123778008388171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.108513686661877</v>
+        <v>0.108683730832318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.140425839653498</v>
+        <v>0.140637844902965</v>
       </c>
     </row>
     <row r="3">
@@ -629,25 +635,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.040475293836047</v>
+        <v>0.0401964847709452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0319132751463633</v>
+        <v>0.0316909413782539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0512128986329054</v>
+        <v>0.0508649191218012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="n">
-        <v>0.835937013110634</v>
+        <v>0.836025506841921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.817194827374108</v>
+        <v>0.817291045342914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.853103060858206</v>
+        <v>0.85318406883972</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +672,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -680,42 +686,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.659050739935145</v>
+        <v>0.658850289331432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.635737497651097</v>
+        <v>0.635530513291331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.681619146227783</v>
+        <v>0.681425932043573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>0.336735440742312</v>
+        <v>0.336892194682522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.314245343659196</v>
+        <v>0.314396212962599</v>
       </c>
       <c r="D3" t="n">
-        <v>0.359990163347646</v>
+        <v>0.36015226846679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="n">
-        <v>0.00421381932262985</v>
+        <v>0.00425751598612029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00200849086763523</v>
+        <v>0.00202916450263265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00881920613706071</v>
+        <v>0.00891110790850022</v>
       </c>
     </row>
   </sheetData>
@@ -734,117 +740,399 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0249595364308982</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.383624594583457</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.002767479003277</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" t="n">
-        <v>0.0138708697740707</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0756304576761141</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0538177757735151</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.345594271125746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0074587624462326</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0922762533943771</v>
-      </c>
+        <v>0.00277705767306067</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0236179377922022</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.304321137676043</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00366265265923038</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0127116973643791</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.114100490333214</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0504534268197408</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.435224867504689</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.0559077909706573</v>
-      </c>
+        <v>0.00734880907426414</v>
+      </c>
+      <c r="K3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" t="n">
-        <v>0.140234642014154</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.141160845463115</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.142943203572737</v>
+        <v>0.0139181724626824</v>
       </c>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>0.575661308950073</v>
-      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0249312872982165</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="n">
+        <v>0.0535693512070956</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.075921238018077</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>0.0924278209952643</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>374</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>0.345253005891271</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>415</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>0.383853257610856</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.00363637881983977</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>0.0125845048521981</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0236654505616459</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>0.0507043048708865</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>0.0560929982775927</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>63</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>0.113371620385695</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>168</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>0.303939227471024</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>241</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="n">
+        <v>0.436005515846936</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.14372897147077</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.140542290207117</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>0.147083510442007</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="n">
+        <v>0.568645227880135</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,7 +1150,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -879,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0742182011986683</v>
+        <v>0.0742363721582067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0624862438759693</v>
+        <v>0.0625017957422632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0879462331870387</v>
+        <v>0.0879673645859434</v>
       </c>
     </row>
     <row r="3">
@@ -893,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.202006692488393</v>
+        <v>0.202181658702845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.183265588030502</v>
+        <v>0.183428033218126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.222143031402088</v>
+        <v>0.222330602137367</v>
       </c>
     </row>
     <row r="4">
@@ -907,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.300439371087613</v>
+        <v>0.30013028202733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278711682751243</v>
+        <v>0.278415749378667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.323102140255305</v>
+        <v>0.322780821495521</v>
       </c>
     </row>
     <row r="5">
@@ -921,13 +1209,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179619872246088</v>
+        <v>0.17976379385797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.161775959852026</v>
+        <v>0.161908423632618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198964792914654</v>
+        <v>0.199120431454129</v>
       </c>
     </row>
     <row r="6">
@@ -935,13 +1223,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.243715862980168</v>
+        <v>0.243687893254579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223526677619222</v>
+        <v>0.223499994666843</v>
       </c>
       <c r="D6" t="n">
-        <v>0.265105970024154</v>
+        <v>0.265076793713007</v>
       </c>
     </row>
   </sheetData>
@@ -960,79 +1248,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556496918400408</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0120289675860028</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.0389459392366425</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.376727535119525</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0158006393558979</v>
-      </c>
+        <v>0.0118779059843361</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.658830797019453</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0090547720873595</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0342048910006894</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.287111827869733</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0107977120294762</v>
+        <v>17</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>0.0157513731345843</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" t="n">
-        <v>0.428150115697219</v>
+        <v>42</v>
       </c>
       <c r="C4"/>
-      <c r="D4" t="n">
-        <v>0.141160845463115</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.144047680372354</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.286641358467687</v>
-      </c>
+        <v>0.0389489790390507</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>408</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>0.37719328938977</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>602</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.556228452155335</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.00899478421106137</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="n">
+        <v>0.0108976035740712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0.0343635389285329</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>159</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>0.287562908637728</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>364</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.658181164655858</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>0.140542290207117</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.141661121971178</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="n">
+        <v>0.285556238870768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.432240348951359</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,7 +1476,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1064,42 +1490,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.583210249412681</v>
+        <v>0.583304416062502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.559154768212116</v>
+        <v>0.559249867884833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606875969582621</v>
+        <v>0.60696877454343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>0.413755128471332</v>
+        <v>0.413639637770416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.390121527552285</v>
+        <v>0.390007865312332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.437792710923939</v>
+        <v>0.437675912678258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="n">
-        <v>0.00303462212640268</v>
+        <v>0.00305594617657738</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00126239448254606</v>
+        <v>0.00127108586530576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00727668580712389</v>
+        <v>0.00732871813297225</v>
       </c>
     </row>
   </sheetData>
@@ -1118,115 +1544,397 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0302997513078275</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.374834176942786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0031163260567068</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" t="n">
-        <v>0.0146587889570535</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0728756879168665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0544493037420277</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.346624211331645</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.00630548120096043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0968362726231127</v>
-      </c>
+        <v>0.00313341754731265</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0176974141347673</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.327403097321125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00299641175973292</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0117773284334162</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.112062603058373</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0500361407956626</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4190470899625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00299278851460339</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.0559871271957414</v>
-      </c>
+        <v>0.00624657135396342</v>
+      </c>
+      <c r="K3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" t="n">
-        <v>0.601975188742987</v>
-      </c>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="n">
+        <v>0.0147217356337862</v>
+      </c>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>0.398024811257013</v>
-      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0302988940150229</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="n">
+        <v>0.0541847184716851</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>70</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.0732068717292147</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>93</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>0.0971136923296092</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>332</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>0.346112896135027</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>359</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>0.374981202869086</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.0029663418982203</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="n">
+        <v>0.00289651223434691</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>0.0116583604786658</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0177380036870364</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>34</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>0.0502125029652372</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>0.055958235612708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>76</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>0.111544103332936</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>222</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>0.327160538864383</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>285</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="n">
+        <v>0.419865402095017</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="n">
+        <v>0.397834315605484</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="n">
+        <v>0.602165684394515</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,74 +1952,201 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
+      <c r="G1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575137934279872</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.00938830701834736</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.03673015154364</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.36299406693585</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0157495402258009</v>
-      </c>
+        <v>0.00930280968190855</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.616280443279669</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0132962842066969</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.039537333673524</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.320625954649805</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0102599841912824</v>
+        <v>15</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>0.0156759239518255</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.398002175174695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.601997824825305</v>
+        <v>0.0365977218317299</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>348</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>0.363233739730388</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.575189804808173</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.0103492748576621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>0.013126557329225</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0.0398634486037373</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>218</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>0.321301678087051</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>418</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.61535904112319</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>0.397839977155506</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="n">
+        <v>0.602160022844494</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +2165,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1344,70 +2179,70 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285887386301527</v>
+        <v>0.286199889003421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.264524338408724</v>
+        <v>0.264822088103666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.308252617481423</v>
+        <v>0.308579070268851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176242745525158</v>
+        <v>0.175966244980321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.158533498657119</v>
+        <v>0.158278959107656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195470692449163</v>
+        <v>0.195171743711093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>0.349698313823489</v>
+        <v>0.349442689348127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.32696864470027</v>
+        <v>0.326721239433646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.373132060125385</v>
+        <v>0.372869178976583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182130967806635</v>
+        <v>0.182293474767301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164178423192689</v>
+        <v>0.164327703612351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201573153933903</v>
+        <v>0.201749229530032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="n">
-        <v>0.00604058654358764</v>
+        <v>0.00609770190122915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0032508167019504</v>
+        <v>0.00328142121978606</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0111975716450994</v>
+        <v>0.0113036445755922</v>
       </c>
     </row>
   </sheetData>
@@ -1426,179 +2261,688 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0339843443361548</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.351112360636633</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.00639337738540618</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0171066593771506</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0829652055063482</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0556306307834927</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.353104344547905</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.00433210072479475</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0953709767518576</v>
-      </c>
+        <v>0.00426928250828664</v>
+      </c>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0207149648964991</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.353672396036779</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00350826616865694</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.00349305389146234</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.114403118918919</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0589186149313845</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.36911075565797</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.007026000516276</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0691528293332801</v>
-      </c>
+        <v>0.00635501978998115</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.022745309356346</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.39377872285797</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00174768245706604</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0139577138768823</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.065965148688922</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0558415037289608</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.350233648208425</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.00697437842595504</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0887558926580354</v>
-      </c>
+        <v>0.017127278902475</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0169221286488842</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.291342401463427</v>
+        <v>0.0342071657296922</v>
       </c>
       <c r="D5"/>
-      <c r="E5" t="n">
-        <v>0.0166632478055156</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.117040289449792</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.036470173360516</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.471322977697721</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" t="n">
-        <v>0.0502387818730979</v>
-      </c>
+      <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" t="n">
-        <v>0.0978255074977057</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.40088714924648</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" t="n">
-        <v>0.0997149597295788</v>
-      </c>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="n">
-        <v>0.401572385296691</v>
+        <v>0.0550900757640181</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.0825740507606482</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="n">
+        <v>45</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>0.0958395858135394</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="n">
+        <v>165</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>0.351407864457305</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="n">
+        <v>166</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>0.353129676332809</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.00351975212203631</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00333925862429257</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="n">
+        <v>0.00680876214223326</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0208712969624299</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>0.0589259766282252</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>0.0694083303239425</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>0.113644766989852</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="n">
+        <v>102</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>0.353687384695263</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="n">
+        <v>107</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="n">
+        <v>0.369794471951098</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0.001764436251183</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="n">
+        <v>0.00693041983760802</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>0.0140133333215558</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0225588659419165</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" t="n">
+        <v>0.0558025936945991</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="n">
+        <v>38</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="n">
+        <v>0.0666674265543804</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>51</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="n">
+        <v>0.088809577877919</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>201</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="n">
+        <v>0.349587605206274</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="n">
+        <v>226</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>0.393865741592278</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0167473348963574</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>0.0165849842537592</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="n">
+        <v>0.0369761022785469</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="n">
+        <v>0.0500112806343881</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="n">
+        <v>0.116778572367488</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="n">
+        <v>87</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>0.290811070526448</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="n">
+        <v>141</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="n">
+        <v>0.472090655361602</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.100353938599195</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="n">
+        <v>0.102696132435989</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="n">
+        <v>0.399912459143983</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="n">
+        <v>0.397037472036086</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,118 +2960,355 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>0.578730660675802</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0233613417294524</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0403839578819006</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.346827108344304</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0106969313856328</v>
+        <v>5</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>0.0107171770074425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>0.620094644895179</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00680103120530794</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.0173388593585808</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.341896185256476</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0138692795334909</v>
-      </c>
+        <v>0.0230015393971433</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.564579493810838</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.003571613063049</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0403050526331628</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.372280594773839</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0192632452210271</v>
-      </c>
+        <v>0.0406185878097615</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.639319662835828</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0101598883593336</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0466127648371109</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.297365071876304</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.00654261326962615</v>
-      </c>
+        <v>0.346498094177904</v>
+      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" t="n">
-        <v>0.298670868708018</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6" t="n">
-        <v>0.0984716149412504</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.300430610309852</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.302426908349155</v>
+        <v>272</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.579164601629177</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.0069856826974641</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="n">
+        <v>0.0138535768759704</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0.0174212019623435</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>0.343444720040196</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="n">
+        <v>179</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.618294818606915</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.00355630212423064</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="n">
+        <v>0.0191337057958492</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0.0401873588186691</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="n">
+        <v>214</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>0.373096293893814</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="n">
+        <v>324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.564026338914941</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>0.00676686717399114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="n">
+        <v>0.00987982851946644</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0.0466533250790397</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>0.297309948164931</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="n">
+        <v>191</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.639390032100383</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="n">
+        <v>0.0981289460718957</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.301797336978554</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>0.298293041240688</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.301780677965338</v>
       </c>
     </row>
   </sheetData>
@@ -1757,173 +3338,212 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.619800179017003</v>
+        <v>1018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.596024936934416</v>
+        <v>0.619869328321297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.643014243923432</v>
+        <v>0.596095313964612</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.643081867985052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.523183431712898</v>
+        <v>859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.498960017888769</v>
+        <v>0.523126065204994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.547298272460276</v>
+        <v>0.498902307882805</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.547241514992572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.56126690104516</v>
+        <v>922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53710859026316</v>
+        <v>0.561500293685127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.585138246425833</v>
+        <v>0.537343992551217</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.585368563794217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.396440522883743</v>
+        <v>652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373017147248576</v>
+        <v>0.397006396238721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.420348647294721</v>
+        <v>0.373570127067365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.420925006726867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.448182301220847</v>
+        <v>736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42423861736349</v>
+        <v>0.448412249850201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.472368656812033</v>
+        <v>0.424465485678322</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.472600637010343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.340299512591221</v>
+        <v>559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317743659226455</v>
+        <v>0.340262805020035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.363603212065744</v>
+        <v>0.317707940764537</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.36356566665466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.301099420249617</v>
+        <v>495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279367552809314</v>
+        <v>0.30122590365654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.323762294283524</v>
+        <v>0.2794884838952</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.323893966314033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0378240068551091</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0295888695462373</v>
+        <v>0.0376478254858495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0482372068996263</v>
+        <v>0.029449646306565</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0480153042428122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.354349800330692</v>
+        <v>582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.331542958901531</v>
+        <v>0.354416022031912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377838729040083</v>
+        <v>0.331606994086767</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.377906891355712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.402903766616803</v>
+        <v>662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.379397501339649</v>
+        <v>0.403144591000041</v>
       </c>
       <c r="D11" t="n">
-        <v>0.426864678223696</v>
+        <v>0.37963310314433</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.427109689498108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0164326055686005</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0112874396418195</v>
+        <v>0.0164799507790835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0238664843686905</v>
+        <v>0.0113198725521132</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0239352668856526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00241171056950805</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000904462476969615</v>
+        <v>0.00242499263305602</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00641459669817035</v>
+        <v>0.000909297221367324</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00645086761109855</v>
       </c>
     </row>
   </sheetData>
@@ -1953,89 +3573,110 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
-        <v>0.210543553131993</v>
+        <v>346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191483427001451</v>
+        <v>0.210798141410583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230958952121893</v>
+        <v>0.191720142880465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.23123148022149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="n">
-        <v>0.163799532168549</v>
+        <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.146656480669048</v>
+        <v>0.164000876140079</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182517874562812</v>
+        <v>0.146840044896404</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.182737685207055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0169525981002988</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0117241902314573</v>
+        <v>0.0171311194322326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0244549209978881</v>
+        <v>0.0118482577764881</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0247105820209424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0163731355249339</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0112466945920209</v>
+        <v>0.0165220247127026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.023780098741723</v>
+        <v>0.0113490628814656</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0239956215573279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="n">
-        <v>0.747373192927347</v>
+        <v>1227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.725760180966987</v>
+        <v>0.747052109091086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.767827770377143</v>
+        <v>0.725421230593956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.76752503525868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00123611662431713</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000308649340376289</v>
+        <v>0.00123404648080838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00493678811271911</v>
+        <v>0.000308134794765623</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00492850587079003</v>
       </c>
     </row>
   </sheetData>
@@ -2054,48 +3695,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232354933994078</v>
+        <v>0.233033549501725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184276019019729</v>
+        <v>0.184831970145651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0144584481317207</v>
+        <v>0.0145873921731454</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0193858455674321</v>
+        <v>0.0194478099863097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72715121890555</v>
+        <v>0.726364304663789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00160892808963228</v>
+        <v>0.00160666591123096</v>
       </c>
     </row>
   </sheetData>
@@ -2114,48 +3755,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>0.207082678250068</v>
+        <v>0.207440745155996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.170104733954043</v>
+        <v>0.170329160029747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0246075751703878</v>
+        <v>0.0248833345116876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0164192830303391</v>
+        <v>0.01663652764519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.74642920206785</v>
+        <v>0.746096626021436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0020936383887063</v>
+        <v>0.00209143531388662</v>
       </c>
     </row>
   </sheetData>
@@ -2174,34 +3815,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -2209,152 +3853,762 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0578314265561618</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.336295303810488</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="n">
-        <v>0.148357047260136</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0243696182451688</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.359548673508204</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0082935867005888</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0653043439759503</v>
-      </c>
+        <v>0.00800035680914082</v>
+      </c>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0332481953773418</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.383315209004648</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.00307650335881096</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0089110632030453</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.083761953625169</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0694240471924994</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="n">
-        <v>0.274484125556226</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00594035537421193</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.137838547325579</v>
-      </c>
+        <v>0.0246085108085014</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.020300025832344</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.389082166132642</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00204713015363227</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0141650919335644</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.071234247762685</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0506170164934558</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.373388035392286</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.00626876107143861</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0728975255832218</v>
-      </c>
+        <v>0.0576013046024982</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0102550379045179</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.322845486413094</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" t="n">
-        <v>0.0204944199040028</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.10127292634638</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0476699417274122</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.422712249132445</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00677427072508497</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0679756699881921</v>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>0.0657466875282927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>0.146784753937999</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.335513303542718</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>0.361745082840735</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0.00300541119726773</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="n">
+        <v>0.00590776674431443</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>0.00906937940608007</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0333332472438385</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="n">
+        <v>0.0690438264272969</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="n">
+        <v>0.0840106941080305</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>0.138597801012586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="n">
+        <v>0.274576956718022</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>127</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="n">
+        <v>0.382454917161506</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>0.00201815715830089</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>0.00601732283440722</v>
+      </c>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>0.0141591338720001</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0203950436050527</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="n">
+        <v>0.0510482683617961</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>0.0712009086640215</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>0.0729853539327009</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>184</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="n">
+        <v>0.372697942527938</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>192</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>0.389477869363756</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" t="n">
+        <v>0.00693924280466056</v>
+      </c>
+      <c r="K27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0099727879880635</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>0.0204577692194914</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="n">
+        <v>0.0470638052415824</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="n">
+        <v>0.0677970215716134</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" t="n">
+        <v>0.101620347307009</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>95</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="n">
+        <v>0.322588408481398</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>125</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="n">
+        <v>0.423560619482394</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0247997115337175</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.322597283107643</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.00747075407938678</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0151202107970986</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0875808971813174</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0527478882180562</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.437004207208934</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" t="n">
-        <v>0.0526790488203068</v>
-      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>0.0075563203734788</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>0.0149732519018154</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0249549547756715</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>21</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="n">
+        <v>0.0525603702187022</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="n">
+        <v>0.0525183923302296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" t="n">
+        <v>0.0874953484726798</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>129</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="n">
+        <v>0.323276073713043</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>175</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="n">
+        <v>0.436665289174395</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,7 +4626,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2386,44 +4640,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0204073183073841</v>
+        <v>0.0199081153741907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00761384020421007</v>
+        <v>0.00744222795597866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0535378591401099</v>
+        <v>0.0521573803481379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.298371639891215</v>
+        <v>0.297763552812657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238244536037183</v>
+        <v>0.237839146352632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.366374954004166</v>
+        <v>0.36554479726548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681221041917189</v>
+        <v>0.682328331975411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.612460277158328</v>
+        <v>0.613827556730926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.742903004152743</v>
+        <v>0.743750718049661</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4696,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2456,44 +4710,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0191850932300096</v>
+        <v>0.0193065673223248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00612093628302999</v>
+        <v>0.00618080396098532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0584916118765917</v>
+        <v>0.058661329991268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.556676009494964</v>
+        <v>0.554753227168193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.476843727271722</v>
+        <v>0.475132327623525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.633684562617879</v>
+        <v>0.631659392375938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.424138897263395</v>
+        <v>0.425940205504716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.348007053504013</v>
+        <v>0.349893031082645</v>
       </c>
       <c r="D4" t="n">
-        <v>0.504049909735709</v>
+        <v>0.505659822529835</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +4766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2526,44 +4780,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0271108993760133</v>
+        <v>0.0274135974453164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0141135444876954</v>
+        <v>0.0142863416723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0514530147219671</v>
+        <v>0.0519671390392823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29442219680898</v>
+        <v>0.294003925434385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.247476618247947</v>
+        <v>0.247153984472135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346176524550337</v>
+        <v>0.345657171725271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.67846690381667</v>
+        <v>0.678582477121699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.625842613645777</v>
+        <v>0.626031362585239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.726919286011167</v>
+        <v>0.726969612995887</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +4836,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2596,44 +4850,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.016764496369043</v>
+        <v>0.0165070635439322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00626089288824985</v>
+        <v>0.00617493967072755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0441073676369729</v>
+        <v>0.0433727662080991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.337900163245197</v>
+        <v>0.336664976729553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.280455706533309</v>
+        <v>0.279439535969655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.400560682715985</v>
+        <v>0.399118264894094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.645335340385784</v>
+        <v>0.64682795972654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.582271783478114</v>
+        <v>0.583975105628186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.703722676719432</v>
+        <v>0.704982197009852</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +4906,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2666,44 +4920,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0150009543260892</v>
+        <v>0.0146536889663347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00479855624611933</v>
+        <v>0.00469858479425737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.045894734147312</v>
+        <v>0.0447527273351846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.318522377250399</v>
+        <v>0.317966656346029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.257391317338354</v>
+        <v>0.257026337804948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386613514096761</v>
+        <v>0.385852012029697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.66647666842358</v>
+        <v>0.667379654687704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.597926519455931</v>
+        <v>0.599057654871477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.728643594660932</v>
+        <v>0.729319842880782</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +4976,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2736,44 +4990,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0275479096997755</v>
+        <v>0.0274690494980273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0160277012669667</v>
+        <v>0.0159876909198626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0469533584119411</v>
+        <v>0.0468034276908451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.333512982420857</v>
+        <v>0.333012919872474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.292214639515767</v>
+        <v>0.291779752705032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.377534687604744</v>
+        <v>0.376971449127888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.638939107880498</v>
+        <v>0.639518030630687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.594355342887544</v>
+        <v>0.594994944082394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.681250653736796</v>
+        <v>0.681764451911751</v>
       </c>
     </row>
   </sheetData>
@@ -2792,125 +5046,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512633171148866</v>
+        <v>0.512535015840925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.425897359757701</v>
+        <v>0.425404138694007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.450635240711436</v>
+        <v>0.450847065358326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293039444984481</v>
+        <v>0.294075731867998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.362264208915417</v>
+        <v>0.362326226270752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.263825962361782</v>
+        <v>0.263786616672749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.222727940358675</v>
+        <v>0.222999874545895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0320206817081125</v>
+        <v>0.0319309516323626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.262713372179314</v>
+        <v>0.263013632045788</v>
       </c>
       <c r="K2" t="n">
-        <v>0.315970439641715</v>
+        <v>0.31604058454628</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0197161560750403</v>
+        <v>0.0198988359165035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00328294175233875</v>
+        <v>0.00326814029020985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>0.775061951532397</v>
+        <v>0.775475116222408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.645483619710548</v>
+        <v>0.645464608183705</v>
       </c>
       <c r="D3" t="n">
-        <v>0.725214582767563</v>
+        <v>0.724986524888043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.513052302311358</v>
+        <v>0.513028949721953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.553521290652579</v>
+        <v>0.553851160550238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.42551602543499</v>
+        <v>0.425909598185518</v>
       </c>
       <c r="H3" t="n">
-        <v>0.38325940517405</v>
+        <v>0.38331864865053</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0356447615707785</v>
+        <v>0.0355054622084912</v>
       </c>
       <c r="J3" t="n">
-        <v>0.47119612997231</v>
+        <v>0.471588601478799</v>
       </c>
       <c r="K3" t="n">
-        <v>0.483736357325983</v>
+        <v>0.483975117602921</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0170531311554228</v>
+        <v>0.016971348510989</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00207345505552265</v>
+        <v>0.00214785606081536</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +5183,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2943,44 +5197,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0216570523697572</v>
+        <v>0.0206384598402133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00282877255746213</v>
+        <v>0.00275000018582127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.147294701940096</v>
+        <v>0.138704892741168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.559610401534691</v>
+        <v>0.56378394860372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.412887520966694</v>
+        <v>0.418465835278719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.696609300395586</v>
+        <v>0.698916024955483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.418732545623907</v>
+        <v>0.415577591014057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.284288293044061</v>
+        <v>0.282881351121409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.566437658414742</v>
+        <v>0.561759106678569</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +5253,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3013,44 +5267,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0464738255312255</v>
+        <v>0.0462794534946862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0146075836891098</v>
+        <v>0.0146697198089936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138112510010156</v>
+        <v>0.136560768894237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.600327824052348</v>
+        <v>0.602177179086895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.474274756423423</v>
+        <v>0.477137685271439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.714359921168635</v>
+        <v>0.715164964327154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.353198351232968</v>
+        <v>0.351543368286346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244650769947655</v>
+        <v>0.244024431571804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.479343933590719</v>
+        <v>0.476571325400884</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +5323,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3083,44 +5337,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0320572683391139</v>
+        <v>0.032523115536921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00771595015433132</v>
+        <v>0.00791756271735451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.123621001509134</v>
+        <v>0.124035460631231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.790361650243188</v>
+        <v>0.791757297110599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.667757637332286</v>
+        <v>0.670714423888837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.876116001124748</v>
+        <v>0.876498669944083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177581081417663</v>
+        <v>0.175719587352449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0994690135442375</v>
+        <v>0.098796302373346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.296815870734674</v>
+        <v>0.293059367622825</v>
       </c>
     </row>
   </sheetData>
@@ -3139,22 +5393,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -3162,100 +5419,336 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.731650004837307</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0164670920512094</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0166224353176323</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.226977010611761</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00828345720291396</v>
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>0.0081711036901186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.545301883670699</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00612347702341885</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.0392692519874433</v>
+        <v>0.016041552831887</v>
       </c>
       <c r="E3" t="n">
-        <v>0.394015720454596</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0152896667977134</v>
-      </c>
+        <v>0.0160915570239141</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.594088051290577</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0101251677306326</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.028392529195346</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.35730191165174</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="n">
-        <v>0.0100923401345612</v>
-      </c>
+        <v>0.230696294171265</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.569559903330855</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0133591908048301</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.074842175377122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.328543454871382</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0136952756159844</v>
-      </c>
+        <v>0.728999492307967</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>0.00605193499391042</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.0151525348081395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>0.0392702010019492</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>131</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>0.394940980043275</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>181</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.544584349089614</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.0101015472542676</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="n">
+        <v>0.0102444477731477</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>0.0285877067157356</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>176</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>0.35703775636253</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>293</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.594028541896915</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.595642136406093</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0126214443191484</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0272467322454976</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.33961739554694</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0248722914898391</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15" t="n">
+        <v>0.013334250548378</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="n">
+        <v>0.0136083659217782</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>0.0745588405716879</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>97</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>0.328010638550719</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.570487904407623</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>0.0123632803880243</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>0.02492432555845</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>0.0275738174589132</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>136</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>0.340175184435464</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>238</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.594963392166218</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3284,61 +5777,76 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>0.78853897455601</v>
+        <v>1295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768082909852899</v>
+        <v>0.788788670726064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80764259681233</v>
+        <v>0.768349606277081</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.80787528235725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>0.490897360473094</v>
+        <v>806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.466727475319533</v>
+        <v>0.490958928229582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.515109875671328</v>
+        <v>0.466788574139794</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.515171624975843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00915553514844367</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00552344422365056</v>
+        <v>0.00912471744240169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0151396461498737</v>
+        <v>0.00550485548811314</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0150887992586653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00063400240316241</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000089120704541291</v>
+        <v>0.000613080229116102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00449529986863505</v>
+        <v>0.0000861781564231696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00434750867632748</v>
       </c>
     </row>
   </sheetData>
@@ -3368,47 +5876,59 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>0.753295549066559</v>
+        <v>1237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.731828680416436</v>
+        <v>0.753293164253283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77357568031989</v>
+        <v>0.731825956004997</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.77357361643916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" t="n">
-        <v>0.477062463483414</v>
+        <v>783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452945954562187</v>
+        <v>0.477022758025108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.501286398760316</v>
+        <v>0.452906310728352</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.501246818703792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00306739605081219</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0012757837248428</v>
+        <v>0.00307852784338333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0073564780712479</v>
+        <v>0.00128076838161702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00738107532961904</v>
       </c>
     </row>
   </sheetData>
@@ -3427,7 +5947,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3441,58 +5961,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00243940139243432</v>
+        <v>0.00243093356005495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000914883674680518</v>
+        <v>0.000911623254133594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00648780478940774</v>
+        <v>0.00646593752382984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.146121051277394</v>
+        <v>0.146291768045309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.129832814834028</v>
+        <v>0.129986866778576</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16406744989625</v>
+        <v>0.164255746130107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.300001642551812</v>
+        <v>0.300094181691462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278292873183191</v>
+        <v>0.278381332443268</v>
       </c>
       <c r="D4" t="n">
-        <v>0.322646778507842</v>
+        <v>0.32274313292174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.551437904767594</v>
+        <v>0.551183116700585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.527251656074899</v>
+        <v>0.526994680151572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.575383282587254</v>
+        <v>0.575131845597752</v>
       </c>
     </row>
   </sheetData>
@@ -3511,149 +6031,538 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="n">
-        <v>0.746875341544697</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>0.253124658455303</v>
-      </c>
-      <c r="I2"/>
+      <c r="H2"/>
+      <c r="I2" t="n">
+        <v>0.251188363606507</v>
+      </c>
       <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0335970552864578</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.367956150125756</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.0040464613629133</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00407416176736258</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.108011638587595</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0417294612393511</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.320649518858937</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0122763096228203</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.107659243767752</v>
-      </c>
+        <v>0.748811636393493</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0203228758108671</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.373185763116604</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00207156954506567</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.0122156679586654</v>
+        <v>0.00413869400142571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.101335938671158</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0569119094024759</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.362849255677688</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.00215032503526964</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0689566961215292</v>
-      </c>
+        <v>0.00416863735096567</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="n">
+        <v>0.0123993028760775</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0332525338844375</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.0412553472172718</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="n">
+        <v>0.10829491600321</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>0.10806710537229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>0.321032245781353</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>0.367391218072944</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0.00202482772285933</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="n">
+        <v>0.00202559254014295</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>0.0121114416924722</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0201581127554929</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="n">
+        <v>0.0571313578314125</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>0.0690761744883708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>0.101226993252012</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>179</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="n">
+        <v>0.363003462145166</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>184</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="n">
+        <v>0.373242038947979</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0.00334124347256213</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="n">
+        <v>0.00439051990084413</v>
+      </c>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>0.0166282359168526</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.0253653001223787</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.341569195597326</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.003344903479837</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0166148258361237</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0774060009076418</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0531100283164304</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.39971688220225</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00449148403199209</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0783813796204809</v>
-      </c>
+      <c r="C22" t="n">
+        <v>0.0255753761309265</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" t="n">
+        <v>0.0529696218333728</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>70</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="n">
+        <v>0.077325786420533</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>71</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="n">
+        <v>0.0784761046490124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>309</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>0.34166604924653</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>362</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="n">
+        <v>0.399627062548663</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3671,58 +6580,103 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.499290716409405</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.500709283590595</v>
+        <v>0.497090327686644</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.502909672313356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.637386412008726</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.362613587991274</v>
+        <v>87</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="n">
+        <v>0.362702790978642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.683225686842908</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.316774313157092</v>
-      </c>
+        <v>0.637297209021358</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6768522136819</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3231477863181</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="n">
+        <v>0.316251275316663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>337</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.683748724683337</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="n">
+        <v>292</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.322642516195975</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n">
+        <v>613</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.677357483804025</v>
+      </c>
+      <c r="D8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3740,7 +6694,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3754,58 +6708,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00424808279454537</v>
+        <v>0.00433465834240943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00202471154218218</v>
+        <v>0.00206606310202866</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00889122483947162</v>
+        <v>0.00907159084607487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>0.154081503939172</v>
+        <v>0.154138427197279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13739675204787</v>
+        <v>0.137448261434206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.172387456750175</v>
+        <v>0.172450066902326</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>0.290573298264816</v>
+        <v>0.29031519824268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26908447639371</v>
+        <v>0.26883796666809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313043219445147</v>
+        <v>0.312774248658743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.551097115758982</v>
+        <v>0.551211716937603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.526908288886576</v>
+        <v>0.527023509345271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.575046634505666</v>
+        <v>0.575160085968561</v>
       </c>
     </row>
   </sheetData>
@@ -3824,56 +6778,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="n">
-        <v>0.425155057016466</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="n">
-        <v>0.145260195141317</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="n">
-        <v>0.286838644401556</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>0.138426091365198</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>0.142746103441056</v>
+      <c r="J2"/>
+      <c r="K2" t="n">
+        <v>0.142169735234048</v>
       </c>
     </row>
     <row r="3">
@@ -3881,96 +6837,517 @@
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>0.015837706393708</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.399875365734543</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0078038880729132</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0158306459380791</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.122631587157867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0399128258443682</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.346915741246752</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3" t="n">
-        <v>0.00778803117235135</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0434042085417369</v>
-      </c>
+        <v>0.288162780411113</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0293742743314231</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.33168690182371</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.00213878656398025</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0104055681844745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0839381876378227</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0670526901726877</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.38957325181522</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.00418491974137214</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.081645419731829</v>
-      </c>
+        <v>0.431241392990187</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>0.00792810882129001</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="n">
+        <v>0.00774915195312149</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0158903399918722</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>0.0157907499199031</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>0.0394846650633143</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>0.0436242023769263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="n">
+        <v>0.122715700910237</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>0.348378297093558</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n">
+        <v>101</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.398438783966158</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>0.00209303206389459</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="n">
+        <v>0.00418362776409669</v>
+      </c>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>0.0106015789019892</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0291765101444757</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="n">
+        <v>0.0671676120915607</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="n">
+        <v>0.0815308742568395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="n">
+        <v>0.0836389852200245</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n">
+        <v>158</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>0.331819480121577</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>186</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="n">
+        <v>0.38978829943789</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>0.00222249927396476</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="n">
+        <v>0.00441346227028208</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>0.0143281652841646</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.0254362494308418</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.355835219715028</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00223798115002489</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0144426377590589</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0815932271638073</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0486748190889667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.379015106972683</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00453583462762858</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0882289245155385</v>
-      </c>
+      <c r="C24" t="n">
+        <v>0.025563541288378</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>44</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="n">
+        <v>0.0486023493365035</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" t="n">
+        <v>0.0817182385687015</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" t="n">
+        <v>0.0885019554526983</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>322</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>0.356085853749108</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="n">
+        <v>343</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>0.378563935208587</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3988,58 +7365,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
+      <c r="D1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.421426544045149</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.57857345595485</v>
-      </c>
+        <v>0.431142039521037</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>0.612051845244753</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.387948154755247</v>
+        <v>4</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="n">
+        <v>0.568857960478963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.637029176275085</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.362970823724915</v>
+        <v>98</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="n">
+        <v>0.387116342603316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.710155315083646</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289844684916354</v>
-      </c>
+        <v>0.612883657396684</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>173</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="n">
+        <v>0.362742762908992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>304</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.637257237091008</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n">
+        <v>262</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>0.289504371991734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>643</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.710495628008266</v>
+      </c>
+      <c r="D9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
